--- a/biology/Zoologie/Acrolepiinae/Acrolepiinae.xlsx
+++ b/biology/Zoologie/Acrolepiinae/Acrolepiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acrolepiinae sont une sous-famille de lépidoptères de la famille des Glyphipterigidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans des classifications plus anciennes, ce taxon avait le rang de famille, sous le nom d'Acrolepiidae. Il a aussi parfois été traité comme une sous-famille de la famille des Plutellidae.
-Son statut actuel de sous-famille au sein des Glyphipterigidae découle d'études de phylogénétique moléculaire[1].
+Son statut actuel de sous-famille au sein des Glyphipterigidae découle d'études de phylogénétique moléculaire.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Acrolepiinae comportent 4 genres et 87 espèces décrites[1]. 
-Sont notamment cités les genres suivants[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Acrolepiinae comportent 4 genres et 87 espèces décrites. 
+Sont notamment cités les genres suivants :
 Acrolepia Curtis, 1838
 Acrolepiopsis Gaedike, 1970
 Digitivalva Gaedike, 1970</t>
